--- a/Material_Config.xlsx
+++ b/Material_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/pascal_brotschi_stud_hslu_ch/Documents/Programmieren/DT_Projekt_HS24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B2737AB1-072A-49D4-AABA-51F79F088DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304293E7-8C87-4398-83A5-D886775B675C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B2737AB1-072A-49D4-AABA-51F79F088DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E508DFF7-D0C6-47A5-A0D9-28D21ED27684}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -188,11 +188,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -211,6 +207,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,15 +503,15 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -519,114 +519,114 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1240,6 +1240,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C184B72A7831A4592B5FD22631B78D2" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="24e96dd36fbc6fea48347483d86c3391">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37a87233-ab4c-45da-ab17-35a8e9d25253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd478216bc3ebef6e26963c9eca1d28b" ns2:_="">
     <xsd:import namespace="37a87233-ab4c-45da-ab17-35a8e9d25253"/>
@@ -1377,16 +1386,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB29FD10-C3DD-480E-9329-5CE55D82D23F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9594367D-FFA0-4BF7-A61E-7EBF6C8BDFD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1402,12 +1410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB29FD10-C3DD-480E-9329-5CE55D82D23F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>